--- a/journal-evaluation/dr-test.xlsx
+++ b/journal-evaluation/dr-test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
   <si>
     <t>wdev_3</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -62,24 +62,29 @@
     <t>src2_1</t>
   </si>
   <si>
+    <t>proj_4</t>
+  </si>
+  <si>
+    <t>hm_1</t>
+  </si>
+  <si>
     <t>web_2</t>
-  </si>
-  <si>
-    <t>proj_4</t>
-  </si>
-  <si>
-    <t>hm_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wdev_3 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,7 +92,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,7 +100,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,7 +179,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -225,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -260,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,20 +457,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -522,7 +536,7 @@
         <v>1002325</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -554,7 +568,7 @@
         <v>1010025.45</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -586,8 +600,8 @@
         <v>1013606.86</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -604,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -619,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -651,7 +665,7 @@
         <v>30079144.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -683,7 +697,7 @@
         <v>30292964.73</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -715,8 +729,8 @@
         <v>30490385.140000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -733,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -748,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -780,7 +794,7 @@
         <v>18955411.379999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -812,7 +826,7 @@
         <v>19289759.550000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -844,8 +858,8 @@
         <v>19543482.359999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1</v>
@@ -877,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -909,7 +923,7 @@
         <v>1460711.75</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -941,7 +955,7 @@
         <v>1490272.73</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -973,7 +987,11 @@
         <v>1530203.71</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D29">
         <f>B2/C2</f>
         <v>1</v>
@@ -983,7 +1001,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D30">
         <f t="shared" ref="D30:D31" si="0">B3/C3</f>
         <v>1</v>
@@ -993,7 +1014,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1003,7 +1027,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D32">
         <f>B16/C16</f>
         <v>0.9846626647901886</v>
@@ -1013,7 +1040,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D33">
         <f t="shared" ref="D33:D34" si="2">B17/C17</f>
         <v>0.98664737043307293</v>
@@ -1023,7 +1053,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D34">
         <f t="shared" si="2"/>
         <v>0.99956940631896241</v>
@@ -1033,7 +1066,10 @@
         <v>1.0005046936509541</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D35">
         <f>B23/C23</f>
         <v>0.99314855185300532</v>
@@ -1043,7 +1079,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D36">
         <f t="shared" ref="D36:D37" si="4">B24/C24</f>
         <v>1</v>
@@ -1053,7 +1092,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D37">
         <f t="shared" si="4"/>
         <v>1.0278215709913754</v>
@@ -1063,7 +1105,10 @@
         <v>0.99682323576128884</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D38">
         <f>H2/I2</f>
         <v>1.0017710627911796</v>
@@ -1073,7 +1118,10 @@
         <v>0.99956326540792662</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D39">
         <f t="shared" ref="D39:D40" si="6">H3/I3</f>
         <v>0.99973324882655157</v>
@@ -1083,7 +1131,10 @@
         <v>0.99999892081927244</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D40">
         <f t="shared" si="6"/>
         <v>0.99591750396141865</v>
@@ -1093,7 +1144,10 @@
         <v>1.0055169318802755</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D41">
         <f>H9/I9</f>
         <v>1.0007641194625225</v>
@@ -1103,7 +1157,10 @@
         <v>1.0000025432904185</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D42">
         <f t="shared" ref="D42:D43" si="8">H10/I10</f>
         <v>1.0000060331258851</v>
@@ -1113,7 +1170,10 @@
         <v>1.0000043934293386</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D43">
         <f t="shared" si="8"/>
         <v>0.99716188265327343</v>
@@ -1123,7 +1183,10 @@
         <v>1.0002335349313334</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D44">
         <f>H16/I16</f>
         <v>1.0005372285378429</v>
@@ -1133,7 +1196,10 @@
         <v>1.0000387878682906</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D45">
         <f t="shared" ref="D45:D46" si="10">H17/I17</f>
         <v>1.0000916011796022</v>
@@ -1143,7 +1209,10 @@
         <v>1.000065894548696</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D46">
         <f t="shared" si="10"/>
         <v>0.99787855391339875</v>
@@ -1153,7 +1222,10 @@
         <v>1.0000875555322475</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D47">
         <f>H23/I23</f>
         <v>1.0095453893121042</v>
@@ -1163,7 +1235,10 @@
         <v>0.98141317066834033</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D48">
         <f t="shared" ref="D48:D49" si="12">H24/I24</f>
         <v>1.0227196578772573</v>
@@ -1173,9 +1248,12 @@
         <v>1.0080843054814537</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D49">
-        <f t="shared" si="12"/>
+        <f>H25/I25</f>
         <v>1.0203391525247099</v>
       </c>
       <c r="E49">
@@ -1183,7 +1261,7 @@
         <v>1.0063302552050406</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51">
         <f>AVERAGE(D29:D49)</f>
         <v>1.0018245237405883</v>
@@ -1193,7 +1271,15 @@
         <v>0.99993654707023216</v>
       </c>
     </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <f>1-E51</f>
+        <v>6.3452929767837674E-5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/journal-evaluation/dr-test.xlsx
+++ b/journal-evaluation/dr-test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,29 +62,28 @@
     <t>src2_1</t>
   </si>
   <si>
-    <t>proj_4</t>
-  </si>
-  <si>
     <t>hm_1</t>
-  </si>
-  <si>
-    <t>web_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">wdev_3 </t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>rsrch_2</t>
+  </si>
+  <si>
+    <t>wdev_0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -92,7 +91,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -100,14 +99,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -163,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,9 +176,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,6 +207,1157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$C$29:$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>wdev_3 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wdev_3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wdev_3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wdev_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wdev_2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>wdev_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rsrch_1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>rsrch_1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>rsrch_1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>src2_1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>src2_1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>src2_1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>rsrch_2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>rsrch_2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>rsrch_2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>wdev_0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>wdev_0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>wdev_0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>hm_1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>hm_1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>hm_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$29:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94018691588785042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9544041450777202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99851961509992593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95348837209302328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1161290322580646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0367480192698173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99679585212080546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96333775757819518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0020853384664741</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0016453065465882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0007655164291602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0108424602607904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0096767349398701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0066523667352676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0508351353366638</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1020377458582253</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0825847757697789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D37D-4F75-ADE7-5F7E58907C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$C$29:$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>wdev_3 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wdev_3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wdev_3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wdev_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wdev_2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>wdev_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rsrch_1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>rsrch_1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>rsrch_1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>src2_1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>src2_1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>src2_1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>rsrch_2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>rsrch_2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>rsrch_2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>wdev_0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>wdev_0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>wdev_0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>hm_1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>hm_1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>hm_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$29:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0037383177570094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95348837209302328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95728017956475064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99993921650069395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2597443962256638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0174545454545454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0054347826086956</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0020853384664741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0150828200357653</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0124110270512192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0219980006810867</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60335866822011763</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.12406248666658</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0740685506922178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D37D-4F75-ADE7-5F7E58907C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1522680816"/>
+        <c:axId val="1522689552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1522680816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522689552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1522689552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522680816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +1615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,22 +1623,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.375" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,104 +1670,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>179</v>
-      </c>
-      <c r="C2">
-        <v>179</v>
-      </c>
-      <c r="D2">
-        <v>169.25</v>
-      </c>
-      <c r="E2">
-        <v>169.25</v>
+      <c r="B2" s="5">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>1044158</v>
-      </c>
-      <c r="I2">
-        <v>1042312</v>
-      </c>
-      <c r="J2">
-        <v>1001887.25</v>
-      </c>
-      <c r="K2">
-        <v>1002325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="5">
+        <v>312480</v>
+      </c>
+      <c r="I2" s="5">
+        <v>301404</v>
+      </c>
+      <c r="J2" s="5">
+        <v>78474</v>
+      </c>
+      <c r="K2" s="5">
+        <v>81976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>179.33</v>
-      </c>
-      <c r="C3">
-        <v>179.33</v>
-      </c>
-      <c r="D3">
-        <v>170.18</v>
-      </c>
-      <c r="E3">
-        <v>170.18</v>
+      <c r="B3" s="5">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5">
+        <v>102</v>
+      </c>
+      <c r="D3" s="5">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5">
+        <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3">
-        <v>1081880.8899999999</v>
-      </c>
-      <c r="I3">
-        <v>1082169.56</v>
-      </c>
-      <c r="J3">
-        <v>1010024.36</v>
-      </c>
-      <c r="K3">
-        <v>1010025.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="5">
+        <v>808226</v>
+      </c>
+      <c r="I3" s="5">
+        <v>810824</v>
+      </c>
+      <c r="J3" s="5">
+        <v>197410</v>
+      </c>
+      <c r="K3" s="5">
+        <v>197422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>190.83</v>
-      </c>
-      <c r="C4">
-        <v>190.83</v>
-      </c>
-      <c r="D4">
-        <v>172.71</v>
-      </c>
-      <c r="E4">
-        <v>172.71</v>
+      <c r="B4" s="5">
+        <v>274</v>
+      </c>
+      <c r="C4" s="5">
+        <v>274</v>
+      </c>
+      <c r="D4" s="5">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5">
+        <v>66</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4">
-        <v>1111835.33</v>
-      </c>
-      <c r="I4">
-        <v>1116393</v>
-      </c>
-      <c r="J4">
-        <v>1019198.86</v>
-      </c>
-      <c r="K4">
-        <v>1013606.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5">
+        <v>1437088</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1491780</v>
+      </c>
+      <c r="J4" s="5">
+        <v>379692</v>
+      </c>
+      <c r="K4" s="5">
+        <v>301404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -633,7 +1805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -652,20 +1824,20 @@
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>31378126.329999998</v>
-      </c>
-      <c r="I9">
-        <v>31354168</v>
-      </c>
-      <c r="J9">
-        <v>30079221</v>
-      </c>
-      <c r="K9">
-        <v>30079144.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="5">
+        <v>12494</v>
+      </c>
+      <c r="I9" s="5">
+        <v>12468</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2798</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -684,20 +1856,20 @@
       <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10">
-        <v>32192461.329999998</v>
-      </c>
-      <c r="I10">
-        <v>32192267.109999999</v>
-      </c>
-      <c r="J10">
-        <v>30293097.82</v>
-      </c>
-      <c r="K10">
-        <v>30292964.73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="5">
+        <v>23134</v>
+      </c>
+      <c r="I10" s="5">
+        <v>23096</v>
+      </c>
+      <c r="J10" s="5">
+        <v>7400</v>
+      </c>
+      <c r="K10" s="5">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -716,21 +1888,21 @@
       <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H11">
-        <v>32957859.170000002</v>
-      </c>
-      <c r="I11">
-        <v>33051663.670000002</v>
-      </c>
-      <c r="J11">
-        <v>30497505.710000001</v>
-      </c>
-      <c r="K11">
-        <v>30490385.140000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5">
+        <v>33990</v>
+      </c>
+      <c r="I11" s="5">
+        <v>33964</v>
+      </c>
+      <c r="J11" s="5">
+        <v>12494</v>
+      </c>
+      <c r="K11" s="5">
+        <v>12468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -747,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -761,105 +1933,149 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
-        <v>342.83</v>
-      </c>
-      <c r="C16">
-        <v>348.17</v>
-      </c>
-      <c r="D16">
-        <v>278.62</v>
-      </c>
-      <c r="E16">
-        <v>278.62</v>
+      <c r="B16" s="5">
+        <v>503</v>
+      </c>
+      <c r="C16" s="5">
+        <v>535</v>
+      </c>
+      <c r="D16" s="5">
+        <v>157</v>
+      </c>
+      <c r="E16" s="5">
+        <v>157</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H16">
-        <v>20812992.829999998</v>
-      </c>
-      <c r="I16">
-        <v>20801817.5</v>
-      </c>
-      <c r="J16">
-        <v>18956146.620000001</v>
-      </c>
-      <c r="K16">
-        <v>18955411.379999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H16" s="5">
+        <v>368072</v>
+      </c>
+      <c r="I16" s="5">
+        <v>364124</v>
+      </c>
+      <c r="J16" s="5">
+        <v>112392</v>
+      </c>
+      <c r="K16" s="5">
+        <v>110722</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
-        <v>361.33</v>
-      </c>
-      <c r="C17">
-        <v>366.22</v>
-      </c>
-      <c r="D17">
-        <v>288.45</v>
-      </c>
-      <c r="E17">
-        <v>288.45</v>
+      <c r="B17" s="5">
+        <v>921</v>
+      </c>
+      <c r="C17" s="5">
+        <v>965</v>
+      </c>
+      <c r="D17" s="5">
+        <v>324</v>
+      </c>
+      <c r="E17" s="5">
+        <v>324</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H17">
-        <v>21571348.670000002</v>
-      </c>
-      <c r="I17">
-        <v>21569372.890000001</v>
-      </c>
-      <c r="J17">
-        <v>19291030.640000001</v>
-      </c>
-      <c r="K17">
-        <v>19289759.550000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="5">
+        <v>656720</v>
+      </c>
+      <c r="I17" s="5">
+        <v>650426</v>
+      </c>
+      <c r="J17" s="5">
+        <v>235258</v>
+      </c>
+      <c r="K17" s="5">
+        <v>232374</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
-        <v>371.42</v>
-      </c>
-      <c r="C18">
-        <v>371.58</v>
-      </c>
-      <c r="D18">
-        <v>297.36</v>
-      </c>
-      <c r="E18">
-        <v>297.20999999999998</v>
+      <c r="B18" s="5">
+        <v>1349</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1351</v>
+      </c>
+      <c r="D18" s="5">
+        <v>537</v>
+      </c>
+      <c r="E18" s="5">
+        <v>535</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H18">
-        <v>22159050.25</v>
-      </c>
-      <c r="I18">
-        <v>22206159.420000002</v>
-      </c>
-      <c r="J18">
-        <v>19545193.5</v>
-      </c>
-      <c r="K18">
-        <v>19543482.359999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="5">
+        <v>972398</v>
+      </c>
+      <c r="I18" s="5">
+        <v>965972</v>
+      </c>
+      <c r="J18" s="5">
+        <v>372134</v>
+      </c>
+      <c r="K18" s="5">
+        <v>364124</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,7 +2092,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1</v>
@@ -890,107 +2106,127 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23">
-        <v>95.67</v>
-      </c>
-      <c r="C23">
-        <v>96.33</v>
-      </c>
-      <c r="D23">
-        <v>84.75</v>
-      </c>
-      <c r="E23">
-        <v>84.75</v>
+      <c r="B23" s="5">
+        <v>82</v>
+      </c>
+      <c r="C23" s="5">
+        <v>86</v>
+      </c>
+      <c r="D23" s="5">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5">
+        <v>22</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H23">
-        <v>1730488</v>
-      </c>
-      <c r="I23">
-        <v>1714126</v>
-      </c>
-      <c r="J23">
-        <v>1433561.75</v>
-      </c>
-      <c r="K23">
-        <v>1460711.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H23" s="5">
+        <v>2029356</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1931184</v>
+      </c>
+      <c r="J23" s="5">
+        <v>330398</v>
+      </c>
+      <c r="K23" s="5">
+        <v>547598</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>99.56</v>
-      </c>
-      <c r="C24">
-        <v>99.56</v>
-      </c>
-      <c r="D24">
-        <v>86.55</v>
-      </c>
-      <c r="E24">
-        <v>86.55</v>
+      <c r="B24" s="5">
+        <v>158</v>
+      </c>
+      <c r="C24" s="5">
+        <v>158</v>
+      </c>
+      <c r="D24" s="5">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5">
+        <v>50</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H24">
-        <v>1831750</v>
-      </c>
-      <c r="I24">
-        <v>1791057.78</v>
-      </c>
-      <c r="J24">
-        <v>1502320.55</v>
-      </c>
-      <c r="K24">
-        <v>1490272.73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="5">
+        <v>3955392</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3589162</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1211872</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1078118</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
-        <v>110.83</v>
-      </c>
-      <c r="C25">
-        <v>107.83</v>
-      </c>
-      <c r="D25">
-        <v>87.86</v>
-      </c>
-      <c r="E25">
-        <v>88.14</v>
+      <c r="B25" s="5">
+        <v>346</v>
+      </c>
+      <c r="C25" s="5">
+        <v>310</v>
+      </c>
+      <c r="D25" s="5">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5">
+        <v>86</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H25">
-        <v>1884762.83</v>
-      </c>
-      <c r="I25">
-        <v>1847192.5</v>
-      </c>
-      <c r="J25">
-        <v>1539890.29</v>
-      </c>
-      <c r="K25">
-        <v>1530203.71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="5">
+        <v>5910010</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5459166</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2074224</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1931184</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <f>B2/C2</f>
@@ -1001,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1">
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15.75" thickBot="1">
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,259 +2263,254 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1">
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D32">
         <f>B16/C16</f>
-        <v>0.9846626647901886</v>
+        <v>0.94018691588785042</v>
       </c>
       <c r="E32">
         <f>D16/E16</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" ht="15.75" thickBot="1">
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D34" si="2">B17/C17</f>
-        <v>0.98664737043307293</v>
+        <f>B17/C17</f>
+        <v>0.9544041450777202</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E34" si="3">D17/E17</f>
+        <f t="shared" ref="E33:E34" si="2">D17/E17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" ht="15.75" thickBot="1">
       <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D34">
+        <f t="shared" ref="D33:D34" si="3">B18/C18</f>
+        <v>0.99851961509992593</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="2"/>
-        <v>0.99956940631896241</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>1.0005046936509541</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.0037383177570094</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15.75" thickBot="1">
       <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D35">
         <f>B23/C23</f>
-        <v>0.99314855185300532</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="E35">
         <f>D23/E23</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" ht="15.75" thickBot="1">
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D37" si="4">B24/C24</f>
+        <f>B24/C24</f>
         <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E37" si="5">D24/E24</f>
+        <f t="shared" ref="E36:E37" si="4">D24/E24</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" ht="15.75" thickBot="1">
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D37">
+        <f t="shared" ref="D36:D37" si="5">B25/C25</f>
+        <v>1.1161290322580646</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="4"/>
-        <v>1.0278215709913754</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="5"/>
-        <v>0.99682323576128884</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.75" thickBot="1">
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D38">
         <f>H2/I2</f>
-        <v>1.0017710627911796</v>
+        <v>1.0367480192698173</v>
       </c>
       <c r="E38">
         <f>J2/K2</f>
-        <v>0.99956326540792662</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.95728017956475064</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15.75" thickBot="1">
       <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D39">
         <f t="shared" ref="D39:D40" si="6">H3/I3</f>
-        <v>0.99973324882655157</v>
+        <v>0.99679585212080546</v>
       </c>
       <c r="E39">
         <f t="shared" ref="E39:E40" si="7">J3/K3</f>
-        <v>0.99999892081927244</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.99993921650069395</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="15.75" thickBot="1">
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40">
         <f t="shared" si="6"/>
-        <v>0.99591750396141865</v>
+        <v>0.96333775757819518</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>1.0055169318802755</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.2597443962256638</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15.75" thickBot="1">
       <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D41">
         <f>H9/I9</f>
-        <v>1.0007641194625225</v>
+        <v>1.0020853384664741</v>
       </c>
       <c r="E41">
         <f>J9/K9</f>
-        <v>1.0000025432904185</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.0174545454545454</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="15.75" thickBot="1">
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D42">
         <f t="shared" ref="D42:D43" si="8">H10/I10</f>
-        <v>1.0000060331258851</v>
+        <v>1.0016453065465882</v>
       </c>
       <c r="E42">
         <f t="shared" ref="E42:E43" si="9">J10/K10</f>
-        <v>1.0000043934293386</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.0054347826086956</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="15.75" thickBot="1">
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D43">
         <f t="shared" si="8"/>
-        <v>0.99716188265327343</v>
+        <v>1.0007655164291602</v>
       </c>
       <c r="E43">
         <f t="shared" si="9"/>
-        <v>1.0002335349313334</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.0020853384664741</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="15.75" thickBot="1">
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <f>H16/I16</f>
-        <v>1.0005372285378429</v>
+        <v>1.0108424602607904</v>
       </c>
       <c r="E44">
         <f>J16/K16</f>
-        <v>1.0000387878682906</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.0150828200357653</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="15.75" thickBot="1">
       <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <f>H17/I17</f>
+        <v>1.0096767349398701</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:E46" si="10">J17/K17</f>
+        <v>1.0124110270512192</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="15.75" thickBot="1">
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D45:D46" si="11">H18/I18</f>
+        <v>1.0066523667352676</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="10"/>
+        <v>1.0219980006810867</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="15.75" thickBot="1">
+      <c r="C47" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ref="D45:D46" si="10">H17/I17</f>
-        <v>1.0000916011796022</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ref="E45:E46" si="11">J17/K17</f>
-        <v>1.000065894548696</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="10"/>
-        <v>0.99787855391339875</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="11"/>
-        <v>1.0000875555322475</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D47">
         <f>H23/I23</f>
-        <v>1.0095453893121042</v>
+        <v>1.0508351353366638</v>
       </c>
       <c r="E47">
         <f>J23/K23</f>
-        <v>0.98141317066834033</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.60335866822011763</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="15.75" thickBot="1">
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:D49" si="12">H24/I24</f>
-        <v>1.0227196578772573</v>
+        <f t="shared" ref="D48" si="12">H24/I24</f>
+        <v>1.1020377458582253</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E49" si="13">J24/K24</f>
-        <v>1.0080843054814537</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f>J24/K24</f>
+        <v>1.12406248666658</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="15.75" thickBot="1">
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <f>H25/I25</f>
-        <v>1.0203391525247099</v>
+        <v>1.0825847757697789</v>
       </c>
       <c r="E49">
-        <f t="shared" si="13"/>
-        <v>1.0063302552050406</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E48:E49" si="13">J25/K25</f>
+        <v>1.0740685506922178</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
       <c r="D51">
         <f>AVERAGE(D29:D49)</f>
-        <v>1.0018245237405883</v>
+        <v>1.0107969090346771</v>
       </c>
       <c r="E51">
         <f>AVERAGE(E29:E49)</f>
-        <v>0.99993654707023216</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E52">
-        <f>1-E51</f>
-        <v>6.3452929767837674E-5</v>
+        <v>1.0023879381913259</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/journal-evaluation/dr-test.xlsx
+++ b/journal-evaluation/dr-test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="28">
   <si>
     <t>wdev_3</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -65,25 +65,73 @@
     <t>hm_1</t>
   </si>
   <si>
-    <t xml:space="preserve">wdev_3 </t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>rsrch_2</t>
   </si>
   <si>
     <t>wdev_0</t>
+  </si>
+  <si>
+    <t>wdev_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(4,2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(6,3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(8,4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(4,2,2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(6,2,3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(8,2,4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdev_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsrch_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsrch_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdev_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +139,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -99,14 +147,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -162,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,9 +240,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,9 +259,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -250,7 +299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -275,75 +324,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$29:$C$49</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>wdev_3 </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>wdev_3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>wdev_3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>wdev_2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>wdev_2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>wdev_2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>rsrch_1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>rsrch_1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>rsrch_1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>src2_1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>src2_1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>src2_1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>rsrch_2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>rsrch_2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>rsrch_2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>wdev_0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>wdev_0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>wdev_0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>hm_1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>hm_1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>hm_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -351,73 +338,16 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94018691588785042</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9544041450777202</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99851961509992593</c:v>
+                  <c:v>1.0107969090346771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95348837209302328</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1161290322580646</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0367480192698173</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99679585212080546</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.96333775757819518</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0020853384664741</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0016453065465882</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0007655164291602</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0108424602607904</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0096767349398701</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0066523667352676</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0508351353366638</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1020377458582253</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0825847757697789</c:v>
+                  <c:v>1.0023879381913259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D37D-4F75-ADE7-5F7E58907C18}"/>
             </c:ext>
@@ -437,75 +367,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$29:$C$49</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>wdev_3 </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>wdev_3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>wdev_3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>wdev_2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>wdev_2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>wdev_2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>rsrch_1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>rsrch_1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>rsrch_1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>src2_1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>src2_1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>src2_1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>rsrch_2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>rsrch_2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>rsrch_2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>wdev_0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>wdev_0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>wdev_0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>hm_1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>hm_1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>hm_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -513,73 +381,10 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0037383177570094</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95348837209302328</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95728017956475064</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99993921650069395</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2597443962256638</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0174545454545454</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0054347826086956</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0020853384664741</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0150828200357653</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0124110270512192</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0219980006810867</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.60335866822011763</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.12406248666658</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0740685506922178</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D37D-4F75-ADE7-5F7E58907C18}"/>
             </c:ext>
@@ -595,11 +400,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1522680816"/>
-        <c:axId val="1522689552"/>
+        <c:axId val="197232640"/>
+        <c:axId val="197354048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1522680816"/>
+        <c:axId val="197232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,10 +444,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522689552"/>
+        <c:crossAx val="197354048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -650,7 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1522689552"/>
+        <c:axId val="197354048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,10 +503,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1522680816"/>
+        <c:crossAx val="197232640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -741,7 +546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -771,7 +576,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1329,16 +1134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1615,7 +1420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1623,22 +1428,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1507,7 @@
         <v>81976</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1539,7 @@
         <v>197422</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1766,14 +1571,14 @@
         <v>301404</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1790,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -1805,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1837,7 +1642,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1869,7 +1674,7 @@
         <v>7360</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1901,8 +1706,8 @@
         <v>12468</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1919,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -1939,7 +1744,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +1781,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -2013,7 +1818,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -2050,7 +1855,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2061,21 +1866,21 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1">
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +1917,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +1954,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +1991,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2223,288 +2028,639 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28">
         <f>B2/C2</f>
         <v>1</v>
       </c>
-      <c r="E29">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="H29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <f>B3/C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="H30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <f>B4/C4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31">
         <f>D2/E2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ref="D30:D31" si="0">B3/C3</f>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="H32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <f>D3/E3</f>
         <v>1</v>
       </c>
-      <c r="E30">
-        <f t="shared" ref="E30:E31" si="1">D3/E3</f>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="H33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <f>D4/E4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1">
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="11">
+        <f>AVERAGE(J28:J30,J34:J36,J40:J42,J46:J48,J52:J54,J58:J60,J64:J66)</f>
+        <v>1.0107969090346771</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="H34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34">
         <f>B16/C16</f>
         <v>0.94018691588785042</v>
       </c>
-      <c r="E32">
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="11">
+        <f>AVERAGE(J31:J33,J37:J39,J43:J45,J49:J51,J55:J57,J61:J63,J67:J69)</f>
+        <v>1.0023879381913259</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="H35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <f>B17/C17</f>
+        <v>0.9544041450777202</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="H36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <f>B18/C18</f>
+        <v>0.99851961509992593</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="H37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37">
         <f>D16/E16</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <f>B17/C17</f>
-        <v>0.9544041450777202</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ref="E33:E34" si="2">D17/E17</f>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="11"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="H38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <f>D17/E17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ref="D33:D34" si="3">B18/C18</f>
-        <v>0.99851961509992593</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="11"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="H39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <f>D18/E18</f>
         <v>1.0037383177570094</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="11"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="H40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40">
         <f>B23/C23</f>
         <v>0.95348837209302328</v>
       </c>
-      <c r="E35">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="H41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <f>B24/C24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="H42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <f>B25/C25</f>
+        <v>1.1161290322580646</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="11"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="H43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43">
         <f>D23/E23</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <f>B24/C24</f>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="11"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="H44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <f>D24/E24</f>
         <v>1</v>
       </c>
-      <c r="E36">
-        <f t="shared" ref="E36:E37" si="4">D24/E24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ref="D36:D37" si="5">B25/C25</f>
-        <v>1.1161290322580646</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="H45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <f>D25/E25</f>
         <v>0.95348837209302328</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="11"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="H46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46">
         <f>H2/I2</f>
         <v>1.0367480192698173</v>
       </c>
-      <c r="E38">
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="11"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="H47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <f>H3/I3</f>
+        <v>0.99679585212080546</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="11"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="H48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48">
+        <f>H4/I4</f>
+        <v>0.96333775757819518</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="H49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49">
         <f>J2/K2</f>
         <v>0.95728017956475064</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D40" si="6">H3/I3</f>
-        <v>0.99679585212080546</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39:E40" si="7">J3/K3</f>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="H50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <f>J3/K3</f>
         <v>0.99993921650069395</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="6"/>
-        <v>0.96333775757819518</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="7"/>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="H51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <f>J4/K4</f>
         <v>1.2597443962256638</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="H52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52">
         <f>H9/I9</f>
         <v>1.0020853384664741</v>
       </c>
-      <c r="E41">
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53">
+        <f>H10/I10</f>
+        <v>1.0016453065465882</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <f>H11/I11</f>
+        <v>1.0007655164291602</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55">
         <f>J9/K9</f>
         <v>1.0174545454545454</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ref="D42:D43" si="8">H10/I10</f>
-        <v>1.0016453065465882</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ref="E42:E43" si="9">J10/K10</f>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <f>J10/K10</f>
         <v>1.0054347826086956</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="8"/>
-        <v>1.0007655164291602</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="9"/>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57">
+        <f>J11/K11</f>
         <v>1.0020853384664741</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58">
         <f>H16/I16</f>
         <v>1.0108424602607904</v>
       </c>
-      <c r="E44">
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <f>H17/I17</f>
+        <v>1.0096767349398701</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60">
+        <f>H18/I18</f>
+        <v>1.0066523667352676</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61">
         <f>J16/K16</f>
         <v>1.0150828200357653</v>
       </c>
     </row>
-    <row r="45" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45">
-        <f>H17/I17</f>
-        <v>1.0096767349398701</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ref="E45:E46" si="10">J17/K17</f>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <f>J17/K17</f>
         <v>1.0124110270512192</v>
       </c>
     </row>
-    <row r="46" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ref="D45:D46" si="11">H18/I18</f>
-        <v>1.0066523667352676</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="10"/>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63">
+        <f>J18/K18</f>
         <v>1.0219980006810867</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64">
         <f>H23/I23</f>
         <v>1.0508351353366638</v>
       </c>
-      <c r="E47">
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <f>H24/I24</f>
+        <v>1.1020377458582253</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66">
+        <f>H25/I25</f>
+        <v>1.0825847757697789</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67">
         <f>J23/K23</f>
         <v>0.60335866822011763</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ref="D48" si="12">H24/I24</f>
-        <v>1.1020377458582253</v>
-      </c>
-      <c r="E48">
+    <row r="68" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68">
         <f>J24/K24</f>
         <v>1.12406248666658</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <f>H25/I25</f>
-        <v>1.0825847757697789</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ref="E48:E49" si="13">J25/K25</f>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69">
+        <f>J25/K25</f>
         <v>1.0740685506922178</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="D51">
-        <f>AVERAGE(D29:D49)</f>
-        <v>1.0107969090346771</v>
-      </c>
-      <c r="E51">
-        <f>AVERAGE(E29:E49)</f>
-        <v>1.0023879381913259</v>
       </c>
     </row>
   </sheetData>

--- a/journal-evaluation/dr-test.xlsx
+++ b/journal-evaluation/dr-test.xlsx
@@ -200,13 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,131 +521,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>66</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>66</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2">
+        <f>B2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>D2/E2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="9">
         <v>312480</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="9">
         <v>301404</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="9">
         <v>78474</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="9">
         <v>81976</v>
       </c>
+      <c r="M2">
+        <f>I2/J2</f>
+        <v>1.0367480192698173</v>
+      </c>
+      <c r="N2">
+        <f>K2/L2</f>
+        <v>0.95728017956475064</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>102</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>102</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>24</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="0">B3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="1">D3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="9">
         <v>808226</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="9">
         <v>810824</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="9">
         <v>197410</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="9">
         <v>197422</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M25" si="2">I3/J3</f>
+        <v>0.99679585212080546</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N25" si="3">K3/L3</f>
+        <v>0.99993921650069395</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>274</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>274</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>66</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>66</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="9">
         <v>1437088</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="9">
         <v>1491780</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="9">
         <v>379692</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="9">
         <v>301404</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0.96333775757819518</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>1.2597443962256638</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -659,653 +704,760 @@
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>0</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="9">
         <v>12494</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="9">
         <v>12468</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="9">
         <v>2798</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="9">
         <v>2750</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>1.0020853384664741</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1.0174545454545454</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="9">
         <v>23134</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="9">
         <v>23096</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="9">
         <v>7400</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="9">
         <v>7360</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1.0016453065465882</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>1.0054347826086956</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>0</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="9">
         <v>33990</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="9">
         <v>33964</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="9">
         <v>12494</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="9">
         <v>12468</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1.0007655164291602</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>1.0020853384664741</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>503</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>535</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>157</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>157</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.94018691588785042</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="9">
         <v>368072</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J16" s="9">
         <v>364124</v>
       </c>
-      <c r="J16" s="10">
+      <c r="K16" s="9">
         <v>112392</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="9">
         <v>110722</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>1.0108424602607904</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>1.0150828200357653</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>921</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>965</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>324</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>324</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.9544041450777202</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="9">
         <v>656720</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J17" s="9">
         <v>650426</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K17" s="9">
         <v>235258</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="9">
         <v>232374</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>1.0096767349398701</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>1.0124110270512192</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>1349</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>1351</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>537</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>535</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.99851961509992593</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.0037383177570094</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="9">
         <v>972398</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="9">
         <v>965972</v>
       </c>
-      <c r="J18" s="10">
+      <c r="K18" s="9">
         <v>372134</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="9">
         <v>364124</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>1.0066523667352676</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1.0219980006810867</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>82</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>86</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>22</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>22</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.95348837209302328</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="10">
+      <c r="I23" s="9">
         <v>2029356</v>
       </c>
-      <c r="I23" s="10">
+      <c r="J23" s="9">
         <v>1931184</v>
       </c>
-      <c r="J23" s="10">
+      <c r="K23" s="9">
         <v>330398</v>
       </c>
-      <c r="K23" s="10">
+      <c r="L23" s="9">
         <v>547598</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>1.0508351353366638</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>0.60335866822011763</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>158</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>158</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>50</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>50</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="10">
+      <c r="I24" s="9">
         <v>3955392</v>
       </c>
-      <c r="I24" s="10">
+      <c r="J24" s="9">
         <v>3589162</v>
       </c>
-      <c r="J24" s="10">
+      <c r="K24" s="9">
         <v>1211872</v>
       </c>
-      <c r="K24" s="10">
+      <c r="L24" s="9">
         <v>1078118</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>1.1020377458582253</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>1.12406248666658</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>346</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>310</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>82</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>86</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.1161290322580646</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.95348837209302328</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="10">
+      <c r="I25" s="9">
         <v>5910010</v>
       </c>
-      <c r="I25" s="10">
+      <c r="J25" s="9">
         <v>5459166</v>
       </c>
-      <c r="J25" s="10">
+      <c r="K25" s="9">
         <v>2074224</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L25" s="9">
         <v>1931184</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>1.0825847757697789</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>1.0740685506922178</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="7"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="H30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <f>AVERAGE(F2:G4,F16:G18,F23:G25,M23:N25,M16:N18,M9:N11,M2:N4)</f>
+        <v>1.0065924236130013</v>
+      </c>
+      <c r="H30" s="1">
+        <f>AVERAGE(F2:F4,F16:F18,F23:F25,M2:M4,M9:M11,M16:M19,M23:M25)</f>
+        <v>1.0107969090346771</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="7"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="H31" s="1">
+        <f>AVERAGE(G2:G4,G16:G18,G23:G25,N2:N4,N9:N11,N16:N18,N23:N25)</f>
+        <v>1.0023879381913259</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="7"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="7"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="7"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="7"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="7"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="7"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="7"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="7"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="7"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="7"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="7"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="7"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="7"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="7"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="7"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
